--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.390049487776</v>
+        <v>1201.478401823824</v>
       </c>
       <c r="AB2" t="n">
-        <v>1543.913046764789</v>
+        <v>1643.915754861506</v>
       </c>
       <c r="AC2" t="n">
-        <v>1396.564152477127</v>
+        <v>1487.022742467776</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128390.049487776</v>
+        <v>1201478.401823825</v>
       </c>
       <c r="AE2" t="n">
-        <v>1543913.046764788</v>
+        <v>1643915.754861506</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.255866518000033e-06</v>
+        <v>2.323681862275736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.099609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1396564.152477127</v>
+        <v>1487022.742467776</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.8407555118459</v>
+        <v>592.6231579665586</v>
       </c>
       <c r="AB3" t="n">
-        <v>744.1069142521317</v>
+        <v>810.8531494183761</v>
       </c>
       <c r="AC3" t="n">
-        <v>673.0903947165208</v>
+        <v>733.4664628774286</v>
       </c>
       <c r="AD3" t="n">
-        <v>543840.7555118459</v>
+        <v>592623.1579665586</v>
       </c>
       <c r="AE3" t="n">
-        <v>744106.9142521317</v>
+        <v>810853.1494183762</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.968062622327165e-06</v>
+        <v>3.641431118497528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>673090.3947165208</v>
+        <v>733466.4628774286</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.3397407693933</v>
+        <v>492.0368023695344</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.596992089659</v>
+        <v>673.2264601337058</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.7042265288467</v>
+        <v>608.9746716578154</v>
       </c>
       <c r="AD4" t="n">
-        <v>443339.7407693933</v>
+        <v>492036.8023695344</v>
       </c>
       <c r="AE4" t="n">
-        <v>606596.992089659</v>
+        <v>673226.4601337059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.234996112399434e-06</v>
+        <v>4.135327962170588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.800130208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>548704.2265288467</v>
+        <v>608974.6716578155</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.8529371356905</v>
+        <v>440.3544876307044</v>
       </c>
       <c r="AB5" t="n">
-        <v>552.5694053231971</v>
+        <v>602.5124370452312</v>
       </c>
       <c r="AC5" t="n">
-        <v>499.8329568151817</v>
+        <v>545.00949568515</v>
       </c>
       <c r="AD5" t="n">
-        <v>403852.9371356905</v>
+        <v>440354.4876307044</v>
       </c>
       <c r="AE5" t="n">
-        <v>552569.4053231971</v>
+        <v>602512.4370452312</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.380553758787216e-06</v>
+        <v>4.404647717080103e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.383463541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>499832.9568151816</v>
+        <v>545009.49568515</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>381.2617524003927</v>
+        <v>417.7633028954066</v>
       </c>
       <c r="AB6" t="n">
-        <v>521.6591497156323</v>
+        <v>571.6021814376666</v>
       </c>
       <c r="AC6" t="n">
-        <v>471.8727326199867</v>
+        <v>517.0492714899551</v>
       </c>
       <c r="AD6" t="n">
-        <v>381261.7524003927</v>
+        <v>417763.3028954066</v>
       </c>
       <c r="AE6" t="n">
-        <v>521659.1497156324</v>
+        <v>571602.1814376665</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.467664268139236e-06</v>
+        <v>4.565824966169632e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>471872.7326199867</v>
+        <v>517049.2714899551</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.7102141492052</v>
+        <v>401.2117646442192</v>
       </c>
       <c r="AB7" t="n">
-        <v>499.0126048780251</v>
+        <v>548.9556366000593</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.3875422370554</v>
+        <v>496.5640811070238</v>
       </c>
       <c r="AD7" t="n">
-        <v>364710.2141492052</v>
+        <v>401211.7646442191</v>
       </c>
       <c r="AE7" t="n">
-        <v>499012.6048780251</v>
+        <v>548955.6366000592</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.528538922048687e-06</v>
+        <v>4.678459013764887e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>451387.5422370554</v>
+        <v>496564.0811070238</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>337.8785475473085</v>
+        <v>374.4653493883431</v>
       </c>
       <c r="AB8" t="n">
-        <v>462.3003349037231</v>
+        <v>512.3600112784065</v>
       </c>
       <c r="AC8" t="n">
-        <v>418.1790397831062</v>
+        <v>463.4610909037869</v>
       </c>
       <c r="AD8" t="n">
-        <v>337878.5475473085</v>
+        <v>374465.3493883431</v>
       </c>
       <c r="AE8" t="n">
-        <v>462300.3349037231</v>
+        <v>512360.0112784065</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.578863214160948e-06</v>
+        <v>4.771572129798389e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>418179.0397831062</v>
+        <v>463461.0909037869</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>332.635403174617</v>
+        <v>369.2222050156515</v>
       </c>
       <c r="AB9" t="n">
-        <v>455.126433461802</v>
+        <v>505.1861098364853</v>
       </c>
       <c r="AC9" t="n">
-        <v>411.689805426168</v>
+        <v>456.9718565468488</v>
       </c>
       <c r="AD9" t="n">
-        <v>332635.403174617</v>
+        <v>369222.2050156515</v>
       </c>
       <c r="AE9" t="n">
-        <v>455126.433461802</v>
+        <v>505186.1098364853</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.586519228916431e-06</v>
+        <v>4.785737761551166e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.875651041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>411689.805426168</v>
+        <v>456971.8565468488</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>316.7303472929474</v>
+        <v>353.317149133982</v>
       </c>
       <c r="AB10" t="n">
-        <v>433.3644343229585</v>
+        <v>483.4241106976419</v>
       </c>
       <c r="AC10" t="n">
-        <v>392.0047409419782</v>
+        <v>437.2867920626588</v>
       </c>
       <c r="AD10" t="n">
-        <v>316730.3472929475</v>
+        <v>353317.149133982</v>
       </c>
       <c r="AE10" t="n">
-        <v>433364.4343229585</v>
+        <v>483424.1106976419</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.636750154995088e-06</v>
+        <v>4.878678125977926e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.763346354166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>392004.7409419782</v>
+        <v>437286.7920626588</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>308.4487258188259</v>
+        <v>345.0355276598605</v>
       </c>
       <c r="AB11" t="n">
-        <v>422.0331544627117</v>
+        <v>472.0928308373951</v>
       </c>
       <c r="AC11" t="n">
-        <v>381.7549025280421</v>
+        <v>427.0369536487229</v>
       </c>
       <c r="AD11" t="n">
-        <v>308448.7258188259</v>
+        <v>345035.5276598604</v>
       </c>
       <c r="AE11" t="n">
-        <v>422033.1544627117</v>
+        <v>472092.8308373951</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.652342282606865e-06</v>
+        <v>4.907527644303704e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>381754.9025280421</v>
+        <v>427036.9536487229</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>306.9095727426416</v>
+        <v>343.4963745836761</v>
       </c>
       <c r="AB12" t="n">
-        <v>419.9272173212349</v>
+        <v>469.9868936959182</v>
       </c>
       <c r="AC12" t="n">
-        <v>379.8499530716466</v>
+        <v>425.1320041923273</v>
       </c>
       <c r="AD12" t="n">
-        <v>306909.5727426416</v>
+        <v>343496.3745836761</v>
       </c>
       <c r="AE12" t="n">
-        <v>419927.2173212349</v>
+        <v>469986.8936959183</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.659064637026313e-06</v>
+        <v>4.91996575998907e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.714518229166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>379849.9530716466</v>
+        <v>425132.0041923273</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>308.1094174720496</v>
+        <v>344.6962193130842</v>
       </c>
       <c r="AB13" t="n">
-        <v>421.5688978134245</v>
+        <v>471.628574188108</v>
       </c>
       <c r="AC13" t="n">
-        <v>381.3349538817747</v>
+        <v>426.6170050024554</v>
       </c>
       <c r="AD13" t="n">
-        <v>308109.4174720496</v>
+        <v>344696.2193130841</v>
       </c>
       <c r="AE13" t="n">
-        <v>421568.8978134245</v>
+        <v>471628.574188108</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.658877904959106e-06</v>
+        <v>4.919620256775587e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>381334.9538817747</v>
+        <v>426617.0050024554</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.4224049106657</v>
+        <v>846.1557142282313</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.386073023549</v>
+        <v>1157.747577962576</v>
       </c>
       <c r="AC2" t="n">
-        <v>974.5618583350312</v>
+        <v>1047.253774030759</v>
       </c>
       <c r="AD2" t="n">
-        <v>787422.4049106657</v>
+        <v>846155.7142282313</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077386.073023549</v>
+        <v>1157747.577962576</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542572698109107e-06</v>
+        <v>2.940381631540512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.19205729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>974561.8583350312</v>
+        <v>1047253.774030759</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.4249068694835</v>
+        <v>480.7161327761863</v>
       </c>
       <c r="AB3" t="n">
-        <v>609.4500083388383</v>
+        <v>657.7370205633928</v>
       </c>
       <c r="AC3" t="n">
-        <v>551.2849549114378</v>
+        <v>594.9635224605281</v>
       </c>
       <c r="AD3" t="n">
-        <v>445424.9068694835</v>
+        <v>480716.1327761863</v>
       </c>
       <c r="AE3" t="n">
-        <v>609450.0083388384</v>
+        <v>657737.0205633928</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20128823258435e-06</v>
+        <v>4.195995101398775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.141927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>551284.9549114378</v>
+        <v>594963.5224605281</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.8641820650278</v>
+        <v>407.0700671171589</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.8009793912433</v>
+        <v>556.9712244936001</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.2417280248019</v>
+        <v>503.8146725419533</v>
       </c>
       <c r="AD4" t="n">
-        <v>371864.1820650278</v>
+        <v>407070.0671171589</v>
       </c>
       <c r="AE4" t="n">
-        <v>508800.9793912433</v>
+        <v>556971.2244936001</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.441304083489186e-06</v>
+        <v>4.65350235544537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.438802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>460241.7280248019</v>
+        <v>503814.6725419533</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.7933391174208</v>
+        <v>376.9992241695519</v>
       </c>
       <c r="AB5" t="n">
-        <v>467.6567254383656</v>
+        <v>515.8269705407224</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.0242239228637</v>
+        <v>466.5971684400152</v>
       </c>
       <c r="AD5" t="n">
-        <v>341793.3391174208</v>
+        <v>376999.2241695519</v>
       </c>
       <c r="AE5" t="n">
-        <v>467656.7254383656</v>
+        <v>515826.9705407224</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.570922301563347e-06</v>
+        <v>4.900574683385221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.114908854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>423024.2239228637</v>
+        <v>466597.1684400152</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.5423763561622</v>
+        <v>345.8335127543139</v>
       </c>
       <c r="AB6" t="n">
-        <v>424.897779493238</v>
+        <v>473.184669248244</v>
       </c>
       <c r="AC6" t="n">
-        <v>384.3461317661815</v>
+        <v>428.0245885340453</v>
       </c>
       <c r="AD6" t="n">
-        <v>310542.3763561622</v>
+        <v>345833.5127543139</v>
       </c>
       <c r="AE6" t="n">
-        <v>424897.779493238</v>
+        <v>473184.669248244</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.64780464253729e-06</v>
+        <v>5.047124290717651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>384346.1317661816</v>
+        <v>428024.5885340453</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>294.0816285607864</v>
+        <v>329.3727649589381</v>
       </c>
       <c r="AB7" t="n">
-        <v>402.3754581626646</v>
+        <v>450.6623479176706</v>
       </c>
       <c r="AC7" t="n">
-        <v>363.9733091731215</v>
+        <v>407.6517659409853</v>
       </c>
       <c r="AD7" t="n">
-        <v>294081.6285607864</v>
+        <v>329372.7649589381</v>
       </c>
       <c r="AE7" t="n">
-        <v>402375.4581626647</v>
+        <v>450662.3479176706</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.707398115377646e-06</v>
+        <v>5.160718647154975e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.8056640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>363973.3091731215</v>
+        <v>407651.7659409853</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>282.2485021992848</v>
+        <v>317.5396385974365</v>
       </c>
       <c r="AB8" t="n">
-        <v>386.1848526341667</v>
+        <v>434.4717423891728</v>
       </c>
       <c r="AC8" t="n">
-        <v>349.3279123126059</v>
+        <v>393.0063690804697</v>
       </c>
       <c r="AD8" t="n">
-        <v>282248.5021992847</v>
+        <v>317539.6385974365</v>
       </c>
       <c r="AE8" t="n">
-        <v>386184.8526341667</v>
+        <v>434471.7423891728</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.739271447690964e-06</v>
+        <v>5.221474137631988e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.738932291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>349327.9123126059</v>
+        <v>393006.3690804697</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>280.308352356242</v>
+        <v>315.5994887543936</v>
       </c>
       <c r="AB9" t="n">
-        <v>383.5302540255453</v>
+        <v>431.8171437805515</v>
       </c>
       <c r="AC9" t="n">
-        <v>346.9266648694389</v>
+        <v>390.6051216373026</v>
       </c>
       <c r="AD9" t="n">
-        <v>280308.352356242</v>
+        <v>315599.4887543936</v>
       </c>
       <c r="AE9" t="n">
-        <v>383530.2540255453</v>
+        <v>431817.1437805515</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.743810982899225e-06</v>
+        <v>5.23012719233629e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>346926.6648694389</v>
+        <v>390605.1216373026</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.8660022583861</v>
+        <v>355.2564192405098</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.127752249551</v>
+        <v>486.0775056119522</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.8362615085595</v>
+        <v>439.6869506904105</v>
       </c>
       <c r="AD2" t="n">
-        <v>323866.0022583861</v>
+        <v>355256.4192405099</v>
       </c>
       <c r="AE2" t="n">
-        <v>443127.7522495509</v>
+        <v>486077.5056119522</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.457825849479016e-06</v>
+        <v>5.234525839153574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.137044270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>400836.2615085595</v>
+        <v>439686.9506904105</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.8946846921801</v>
+        <v>265.5777729478031</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.3425851320654</v>
+        <v>363.3752254116212</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.1056787616704</v>
+        <v>328.6952038986673</v>
       </c>
       <c r="AD3" t="n">
-        <v>223894.6846921801</v>
+        <v>265577.7729478031</v>
       </c>
       <c r="AE3" t="n">
-        <v>306342.5851320654</v>
+        <v>363375.2254116212</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.924494822434252e-06</v>
+        <v>6.22840862290867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.997721354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>277105.6787616704</v>
+        <v>328695.2038986673</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.7345048151704</v>
+        <v>249.1248322887426</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.9139552563892</v>
+        <v>340.86358614922</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.4814654916697</v>
+        <v>308.3320438922879</v>
       </c>
       <c r="AD4" t="n">
-        <v>217734.5048151704</v>
+        <v>249124.8322887426</v>
       </c>
       <c r="AE4" t="n">
-        <v>297913.9552563892</v>
+        <v>340863.58614922</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.962862987416252e-06</v>
+        <v>6.310122773258974e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.921223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>269481.4654916697</v>
+        <v>308332.0438922879</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.2670212103249</v>
+        <v>496.0689540491057</v>
       </c>
       <c r="AB2" t="n">
-        <v>618.8116910327585</v>
+        <v>678.7434279476729</v>
       </c>
       <c r="AC2" t="n">
-        <v>559.7531717482544</v>
+        <v>613.9651078067304</v>
       </c>
       <c r="AD2" t="n">
-        <v>452267.0212103249</v>
+        <v>496068.9540491058</v>
       </c>
       <c r="AE2" t="n">
-        <v>618811.6910327586</v>
+        <v>678743.4279476729</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.089332579960437e-06</v>
+        <v>4.242067485745559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0322265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>559753.1717482544</v>
+        <v>613965.1078067304</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.4295157358037</v>
+        <v>334.2596525283842</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.4291615614269</v>
+        <v>457.3488030844504</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.0675012299673</v>
+        <v>413.7000752111463</v>
       </c>
       <c r="AD3" t="n">
-        <v>301429.5157358037</v>
+        <v>334259.6525283842</v>
       </c>
       <c r="AE3" t="n">
-        <v>412429.1615614269</v>
+        <v>457348.8030844504</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.638060767413529e-06</v>
+        <v>5.356175418983709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.360677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>373067.5012299673</v>
+        <v>413700.0752111463</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.2323472111471</v>
+        <v>287.1477353497513</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.8519133937058</v>
+        <v>392.8881995695473</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.6534149927411</v>
+        <v>355.3915012246803</v>
       </c>
       <c r="AD4" t="n">
-        <v>254232.3472111471</v>
+        <v>287147.7353497513</v>
       </c>
       <c r="AE4" t="n">
-        <v>347851.9133937059</v>
+        <v>392888.1995695473</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.827156501308487e-06</v>
+        <v>5.740105135172879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.935872395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>314653.4149927411</v>
+        <v>355391.5012246803</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.8625256344768</v>
+        <v>271.7779137730807</v>
       </c>
       <c r="AB5" t="n">
-        <v>326.8222454438438</v>
+        <v>371.8585316196744</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.6307890366828</v>
+        <v>336.3688752686189</v>
       </c>
       <c r="AD5" t="n">
-        <v>238862.5256344767</v>
+        <v>271777.9137730807</v>
       </c>
       <c r="AE5" t="n">
-        <v>326822.2454438438</v>
+        <v>371858.5316196744</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.895309325792985e-06</v>
+        <v>5.878478931465706e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.7958984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>295630.7890366828</v>
+        <v>336368.8752686189</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>240.025603627808</v>
+        <v>272.940991766412</v>
       </c>
       <c r="AB6" t="n">
-        <v>328.4136200656985</v>
+        <v>373.44990624153</v>
       </c>
       <c r="AC6" t="n">
-        <v>297.0702850981366</v>
+        <v>337.808371330073</v>
       </c>
       <c r="AD6" t="n">
-        <v>240025.603627808</v>
+        <v>272940.991766412</v>
       </c>
       <c r="AE6" t="n">
-        <v>328413.6200656985</v>
+        <v>373449.90624153</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.8948969032545e-06</v>
+        <v>5.877641571125053e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.797526041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>297070.2850981366</v>
+        <v>337808.371330073</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.5284495922442</v>
+        <v>269.7532553377993</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.7333919813522</v>
+        <v>369.088304626896</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.4549770274539</v>
+        <v>333.8630348519933</v>
       </c>
       <c r="AD2" t="n">
-        <v>239528.4495922442</v>
+        <v>269753.2553377993</v>
       </c>
       <c r="AE2" t="n">
-        <v>327733.3919813522</v>
+        <v>369088.304626896</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.77932566472473e-06</v>
+        <v>6.189015386221603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.554361979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>296454.9770274539</v>
+        <v>333863.0348519933</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.5584908872031</v>
+        <v>240.6127044321626</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.0954164167581</v>
+        <v>329.2169172872754</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.599994218484</v>
+        <v>297.7969167603212</v>
       </c>
       <c r="AD3" t="n">
-        <v>210558.4908872031</v>
+        <v>240612.7044321626</v>
       </c>
       <c r="AE3" t="n">
-        <v>288095.4164167581</v>
+        <v>329216.9172872754</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.996254103638807e-06</v>
+        <v>6.672072648343933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>260599.9942184839</v>
+        <v>297796.9167603212</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>854.6576387600865</v>
+        <v>925.835679871066</v>
       </c>
       <c r="AB2" t="n">
-        <v>1169.380286185499</v>
+        <v>1266.769222187094</v>
       </c>
       <c r="AC2" t="n">
-        <v>1057.776272907494</v>
+        <v>1145.870545543327</v>
       </c>
       <c r="AD2" t="n">
-        <v>854657.6387600865</v>
+        <v>925835.679871066</v>
       </c>
       <c r="AE2" t="n">
-        <v>1169380.2861855</v>
+        <v>1266769.222187094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467360491730859e-06</v>
+        <v>2.774431906537236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.61686197916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1057776.272907494</v>
+        <v>1145870.545543327</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.0315887111103</v>
+        <v>515.3699178208855</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.3814677709663</v>
+        <v>705.1518580786478</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.2643592679394</v>
+        <v>637.8531544304697</v>
       </c>
       <c r="AD3" t="n">
-        <v>468031.5887111102</v>
+        <v>515369.9178208854</v>
       </c>
       <c r="AE3" t="n">
-        <v>640381.4677709664</v>
+        <v>705151.8580786479</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.142461179805076e-06</v>
+        <v>4.050887760210238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>579264.3592679395</v>
+        <v>637853.1544304696</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.6078548967412</v>
+        <v>424.3248867340884</v>
       </c>
       <c r="AB4" t="n">
-        <v>531.7104112383056</v>
+        <v>580.5800299223997</v>
       </c>
       <c r="AC4" t="n">
-        <v>480.9647158499702</v>
+        <v>525.1702867157949</v>
       </c>
       <c r="AD4" t="n">
-        <v>388607.8548967412</v>
+        <v>424324.8867340884</v>
       </c>
       <c r="AE4" t="n">
-        <v>531710.4112383056</v>
+        <v>580580.0299223997</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390467118100878e-06</v>
+        <v>4.519808377942656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.516927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>480964.7158499702</v>
+        <v>525170.2867157948</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>356.6916889091092</v>
+        <v>392.2381285458641</v>
       </c>
       <c r="AB5" t="n">
-        <v>488.0413048921588</v>
+        <v>536.6775118014058</v>
       </c>
       <c r="AC5" t="n">
-        <v>441.4633277235238</v>
+        <v>485.4577633066974</v>
       </c>
       <c r="AD5" t="n">
-        <v>356691.6889091092</v>
+        <v>392238.1285458641</v>
       </c>
       <c r="AE5" t="n">
-        <v>488041.3048921588</v>
+        <v>536677.5118014058</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.522653996057846e-06</v>
+        <v>4.769742524252371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.175130208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>441463.3277235238</v>
+        <v>485457.7633066974</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.1654089630943</v>
+        <v>372.5036485643184</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.9056578287106</v>
+        <v>509.6759256668437</v>
       </c>
       <c r="AC6" t="n">
-        <v>402.4444862745502</v>
+        <v>461.0331706558538</v>
       </c>
       <c r="AD6" t="n">
-        <v>325165.4089630943</v>
+        <v>372503.6485643184</v>
       </c>
       <c r="AE6" t="n">
-        <v>444905.6578287106</v>
+        <v>509675.9256668437</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.601334382502906e-06</v>
+        <v>4.918508540375893e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>402444.4862745502</v>
+        <v>461033.1706558538</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>309.8841750084185</v>
+        <v>345.5158659911941</v>
       </c>
       <c r="AB7" t="n">
-        <v>423.9971993714612</v>
+        <v>472.7500509333574</v>
       </c>
       <c r="AC7" t="n">
-        <v>383.5315017472549</v>
+        <v>427.6314495811407</v>
       </c>
       <c r="AD7" t="n">
-        <v>309884.1750084186</v>
+        <v>345515.8659911941</v>
       </c>
       <c r="AE7" t="n">
-        <v>423997.1993714612</v>
+        <v>472750.0509333574</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.657425266270309e-06</v>
+        <v>5.024563145544245e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.862630208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>383531.5017472549</v>
+        <v>427631.4495811407</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>301.5477894315963</v>
+        <v>337.1794804143718</v>
       </c>
       <c r="AB8" t="n">
-        <v>412.5909888498776</v>
+        <v>461.3438404117739</v>
       </c>
       <c r="AC8" t="n">
-        <v>373.2138839491342</v>
+        <v>417.3138317830201</v>
       </c>
       <c r="AD8" t="n">
-        <v>301547.7894315963</v>
+        <v>337179.4804143718</v>
       </c>
       <c r="AE8" t="n">
-        <v>412590.9888498776</v>
+        <v>461343.8404117739</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.671878719254742e-06</v>
+        <v>5.051891209333359e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.830078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>373213.8839491343</v>
+        <v>417313.8317830201</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>286.6913687416828</v>
+        <v>322.3230597244584</v>
       </c>
       <c r="AB9" t="n">
-        <v>392.2637786429144</v>
+        <v>441.0166302048106</v>
       </c>
       <c r="AC9" t="n">
-        <v>354.8266741549049</v>
+        <v>398.9266219887907</v>
       </c>
       <c r="AD9" t="n">
-        <v>286691.3687416828</v>
+        <v>322323.0597244584</v>
       </c>
       <c r="AE9" t="n">
-        <v>392263.7786429144</v>
+        <v>441016.6302048106</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.72289653674284e-06</v>
+        <v>5.148353845092286e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.721028645833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>354826.6741549049</v>
+        <v>398926.6219887907</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>287.4234260440695</v>
+        <v>323.055117026845</v>
       </c>
       <c r="AB10" t="n">
-        <v>393.2654117401285</v>
+        <v>442.0182633020248</v>
       </c>
       <c r="AC10" t="n">
-        <v>355.7327127951218</v>
+        <v>399.8326606290077</v>
       </c>
       <c r="AD10" t="n">
-        <v>287423.4260440695</v>
+        <v>323055.117026845</v>
       </c>
       <c r="AE10" t="n">
-        <v>393265.4117401285</v>
+        <v>442018.2633020247</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.72423659198643e-06</v>
+        <v>5.150887572860813e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.719401041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>355732.7127951218</v>
+        <v>399832.6606290077</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.4593042065593</v>
+        <v>232.7728198149346</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.381996006294</v>
+        <v>318.4900412826906</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.8136090191203</v>
+        <v>288.0937987463455</v>
       </c>
       <c r="AD2" t="n">
-        <v>203459.3042065593</v>
+        <v>232772.8198149346</v>
       </c>
       <c r="AE2" t="n">
-        <v>278381.996006294</v>
+        <v>318490.0412826906</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.961955612295713e-06</v>
+        <v>6.790480946347096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.2939453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>251813.6090191203</v>
+        <v>288093.7987463455</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6461939056456</v>
+        <v>231.9597095140209</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.2694626206896</v>
+        <v>317.3775078970863</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.8072542583872</v>
+        <v>287.0874439856125</v>
       </c>
       <c r="AD3" t="n">
-        <v>202646.1939056456</v>
+        <v>231959.7095140209</v>
       </c>
       <c r="AE3" t="n">
-        <v>277269.4626206897</v>
+        <v>317377.5078970863</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.981543902109015e-06</v>
+        <v>6.835388408226871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.253255208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>250807.2542583873</v>
+        <v>287087.4439856125</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.5314361439933</v>
+        <v>649.1126883191724</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.7783368600117</v>
+        <v>888.1446169890153</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.9672113772663</v>
+        <v>803.3813412623815</v>
       </c>
       <c r="AD2" t="n">
-        <v>603531.4361439934</v>
+        <v>649112.6883191725</v>
       </c>
       <c r="AE2" t="n">
-        <v>825778.3368600117</v>
+        <v>888144.6169890153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.791340001222279e-06</v>
+        <v>3.511001646194753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.041341145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>746967.2113772662</v>
+        <v>803381.3412623815</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.7532353526823</v>
+        <v>412.2490571647386</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.8079566203569</v>
+        <v>564.0573471576143</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.9161095323997</v>
+        <v>510.2245056043496</v>
       </c>
       <c r="AD3" t="n">
-        <v>366753.2353526824</v>
+        <v>412249.0571647387</v>
       </c>
       <c r="AE3" t="n">
-        <v>501807.9566203569</v>
+        <v>564057.3471576143</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.400859333897489e-06</v>
+        <v>4.705651114721105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.746419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>453916.1095323997</v>
+        <v>510224.5056043497</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.0684218756583</v>
+        <v>353.1690425296087</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.5634911155941</v>
+        <v>483.2214647075361</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.8984842442291</v>
+        <v>437.1034863214334</v>
       </c>
       <c r="AD4" t="n">
-        <v>319068.4218756583</v>
+        <v>353169.0425296087</v>
       </c>
       <c r="AE4" t="n">
-        <v>436563.4911155941</v>
+        <v>483221.4647075362</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.621380940625369e-06</v>
+        <v>5.13787041631366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>394898.484244229</v>
+        <v>437103.4863214334</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.9538762302633</v>
+        <v>317.1397482302343</v>
       </c>
       <c r="AB5" t="n">
-        <v>387.1499765022574</v>
+        <v>433.9245947468488</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.200926113286</v>
+        <v>392.5114404412025</v>
       </c>
       <c r="AD5" t="n">
-        <v>282953.8762302633</v>
+        <v>317139.7482302343</v>
       </c>
       <c r="AE5" t="n">
-        <v>387149.9765022574</v>
+        <v>433924.5947468487</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.733432984477171e-06</v>
+        <v>5.357490873711321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.926106770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>350200.9261132859</v>
+        <v>392511.4404412025</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>262.9044526186981</v>
+        <v>297.090324618669</v>
       </c>
       <c r="AB6" t="n">
-        <v>359.7174705987704</v>
+        <v>406.4920888433617</v>
       </c>
       <c r="AC6" t="n">
-        <v>325.3865400714639</v>
+        <v>367.6970543993804</v>
       </c>
       <c r="AD6" t="n">
-        <v>262904.4526186981</v>
+        <v>297090.324618669</v>
       </c>
       <c r="AE6" t="n">
-        <v>359717.4705987704</v>
+        <v>406492.0888433617</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.810953892257414e-06</v>
+        <v>5.509430781626754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.76171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>325386.5400714639</v>
+        <v>367697.0543993803</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>259.3220347401218</v>
+        <v>293.5079067400927</v>
       </c>
       <c r="AB7" t="n">
-        <v>354.8158484121797</v>
+        <v>401.590466656771</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.9527218268914</v>
+        <v>363.2632361548079</v>
       </c>
       <c r="AD7" t="n">
-        <v>259322.0347401217</v>
+        <v>293507.9067400927</v>
       </c>
       <c r="AE7" t="n">
-        <v>354815.8484121797</v>
+        <v>401590.466656771</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.826278949764676e-06</v>
+        <v>5.539467682549703e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.730794270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>320952.7218268914</v>
+        <v>363263.236154808</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>713.9577506470299</v>
+        <v>772.1871369770529</v>
       </c>
       <c r="AB2" t="n">
-        <v>976.8684920282371</v>
+        <v>1056.540507304195</v>
       </c>
       <c r="AC2" t="n">
-        <v>883.6375341926012</v>
+        <v>955.7057641509977</v>
       </c>
       <c r="AD2" t="n">
-        <v>713957.75064703</v>
+        <v>772187.1369770529</v>
       </c>
       <c r="AE2" t="n">
-        <v>976868.4920282371</v>
+        <v>1056540.507304195</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.620894314817189e-06</v>
+        <v>3.116498493459928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.7900390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>883637.5341926011</v>
+        <v>955705.7641509976</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.081159060461</v>
+        <v>457.0188803670258</v>
       </c>
       <c r="AB3" t="n">
-        <v>577.5100627330637</v>
+        <v>625.3133943681871</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.3933128862832</v>
+        <v>565.6343616425477</v>
       </c>
       <c r="AD3" t="n">
-        <v>422081.159060461</v>
+        <v>457018.8803670257</v>
       </c>
       <c r="AE3" t="n">
-        <v>577510.0627330637</v>
+        <v>625313.3943681872</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.267048466904142e-06</v>
+        <v>4.358861072632146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.000325520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>522393.3128862832</v>
+        <v>565634.3616425477</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.224047051185</v>
+        <v>389.0764275031782</v>
       </c>
       <c r="AB4" t="n">
-        <v>484.6649684374714</v>
+        <v>532.3515329503971</v>
       </c>
       <c r="AC4" t="n">
-        <v>438.4092240813538</v>
+        <v>481.5446498056796</v>
       </c>
       <c r="AD4" t="n">
-        <v>354224.047051185</v>
+        <v>389076.4275031782</v>
       </c>
       <c r="AE4" t="n">
-        <v>484664.9684374714</v>
+        <v>532351.5329503971</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499398752768516e-06</v>
+        <v>4.805601683190075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.349283854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>438409.2240813538</v>
+        <v>481544.6498056796</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.9827377059899</v>
+        <v>360.8351181579831</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.0239630727397</v>
+        <v>493.7105275856655</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.4560620356405</v>
+        <v>446.5914877599663</v>
       </c>
       <c r="AD5" t="n">
-        <v>325982.7377059899</v>
+        <v>360835.1181579831</v>
       </c>
       <c r="AE5" t="n">
-        <v>446023.9630727397</v>
+        <v>493710.5275856655</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.624007928318105e-06</v>
+        <v>5.045188128969778e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.048177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>403456.0620356405</v>
+        <v>446591.4877599663</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.245188332702</v>
+        <v>330.1828201307158</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.9674919752338</v>
+        <v>451.7707011408089</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.4134015130526</v>
+        <v>408.6543394880907</v>
       </c>
       <c r="AD6" t="n">
-        <v>295245.188332702</v>
+        <v>330182.8201307158</v>
       </c>
       <c r="AE6" t="n">
-        <v>403967.4919752338</v>
+        <v>451770.7011408089</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.697817901628777e-06</v>
+        <v>5.187102792080292e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.882161458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>365413.4015130526</v>
+        <v>408654.3394880907</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>276.6908869458958</v>
+        <v>311.6285187439096</v>
       </c>
       <c r="AB7" t="n">
-        <v>378.5806782597994</v>
+        <v>426.3838874253744</v>
       </c>
       <c r="AC7" t="n">
-        <v>342.4494696680025</v>
+        <v>385.6904076430404</v>
       </c>
       <c r="AD7" t="n">
-        <v>276690.8869458959</v>
+        <v>311628.5187439096</v>
       </c>
       <c r="AE7" t="n">
-        <v>378580.6782597994</v>
+        <v>426383.8874253744</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.768995286723613e-06</v>
+        <v>5.323955769716585e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.730794270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>342449.4696680024</v>
+        <v>385690.4076430404</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>273.6897691807223</v>
+        <v>308.627400978736</v>
       </c>
       <c r="AB8" t="n">
-        <v>374.4744165335173</v>
+        <v>422.2776256990924</v>
       </c>
       <c r="AC8" t="n">
-        <v>338.7351037977022</v>
+        <v>381.9760417727402</v>
       </c>
       <c r="AD8" t="n">
-        <v>273689.7691807223</v>
+        <v>308627.400978736</v>
       </c>
       <c r="AE8" t="n">
-        <v>374474.4165335174</v>
+        <v>422277.6256990923</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.763925116826447e-06</v>
+        <v>5.314207338432904e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>338735.1037977022</v>
+        <v>381976.0417727403</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>273.8668430714686</v>
+        <v>308.8044748694824</v>
       </c>
       <c r="AB9" t="n">
-        <v>374.7166968427852</v>
+        <v>422.5199060083602</v>
       </c>
       <c r="AC9" t="n">
-        <v>338.954261214296</v>
+        <v>382.1951991893341</v>
       </c>
       <c r="AD9" t="n">
-        <v>273866.8430714686</v>
+        <v>308804.4748694823</v>
       </c>
       <c r="AE9" t="n">
-        <v>374716.6968427852</v>
+        <v>422519.9060083602</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.770555338999664e-06</v>
+        <v>5.32695528703464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.7275390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>338954.261214296</v>
+        <v>382195.1991893341</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024.339227944382</v>
+        <v>1096.8963605806</v>
       </c>
       <c r="AB2" t="n">
-        <v>1401.546122330845</v>
+        <v>1500.821992198494</v>
       </c>
       <c r="AC2" t="n">
-        <v>1267.784527497926</v>
+        <v>1357.585647679965</v>
       </c>
       <c r="AD2" t="n">
-        <v>1024339.227944382</v>
+        <v>1096896.3605806</v>
       </c>
       <c r="AE2" t="n">
-        <v>1401546.122330845</v>
+        <v>1500821.992198494</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.323785089084357e-06</v>
+        <v>2.466111216598694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57063802083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1267784.527497926</v>
+        <v>1357585.647679965</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.1518415228309</v>
+        <v>567.523263280309</v>
       </c>
       <c r="AB3" t="n">
-        <v>710.3264529343479</v>
+        <v>776.5103661794475</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.5338932157312</v>
+        <v>702.4013066704242</v>
       </c>
       <c r="AD3" t="n">
-        <v>519151.8415228309</v>
+        <v>567523.263280309</v>
       </c>
       <c r="AE3" t="n">
-        <v>710326.4529343479</v>
+        <v>776510.3661794475</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.020687448295908e-06</v>
+        <v>3.764387454257824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.579752604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>642533.8932157311</v>
+        <v>702401.3066704242</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.6846577849481</v>
+        <v>471.9707386878546</v>
       </c>
       <c r="AB4" t="n">
-        <v>579.7040404292781</v>
+        <v>645.77118655218</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.3779004304378</v>
+        <v>584.1396908531918</v>
       </c>
       <c r="AD4" t="n">
-        <v>423684.6577849481</v>
+        <v>471970.7386878546</v>
       </c>
       <c r="AE4" t="n">
-        <v>579704.040429278</v>
+        <v>645771.18655218</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.288907802617707e-06</v>
+        <v>4.264061630804553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>524377.9004304378</v>
+        <v>584139.6908531919</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.6672033218459</v>
+        <v>424.860518293934</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.7916143718016</v>
+        <v>581.3129046529771</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.0381690703746</v>
+        <v>525.833216910682</v>
       </c>
       <c r="AD5" t="n">
-        <v>388667.2033218459</v>
+        <v>424860.518293934</v>
       </c>
       <c r="AE5" t="n">
-        <v>531791.6143718016</v>
+        <v>581312.904652977</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.424523778259009e-06</v>
+        <v>4.516703907437477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.318359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>481038.1690703746</v>
+        <v>525833.216910682</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.2399839246523</v>
+        <v>402.4332988967404</v>
       </c>
       <c r="AB6" t="n">
-        <v>501.1057033734712</v>
+        <v>550.6269936546465</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.2808783497782</v>
+        <v>498.0759261900857</v>
       </c>
       <c r="AD6" t="n">
-        <v>366239.9839246523</v>
+        <v>402433.2988967404</v>
       </c>
       <c r="AE6" t="n">
-        <v>501105.7033734712</v>
+        <v>550626.9936546466</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.512330652147514e-06</v>
+        <v>4.680281453654354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.097005208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>453280.8783497782</v>
+        <v>498075.9261900857</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>338.3807788275957</v>
+        <v>386.5815188759307</v>
       </c>
       <c r="AB7" t="n">
-        <v>462.9875098982925</v>
+        <v>528.9378888989968</v>
       </c>
       <c r="AC7" t="n">
-        <v>418.80063176065</v>
+        <v>478.4567991514653</v>
       </c>
       <c r="AD7" t="n">
-        <v>338380.7788275958</v>
+        <v>386581.5188759307</v>
       </c>
       <c r="AE7" t="n">
-        <v>462987.5098982925</v>
+        <v>528937.8888989968</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568327533137503e-06</v>
+        <v>4.784599395775513e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>418800.63176065</v>
+        <v>478456.7991514653</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>324.0625024489067</v>
+        <v>360.3410687670153</v>
       </c>
       <c r="AB8" t="n">
-        <v>443.3966124791978</v>
+        <v>493.0345474130224</v>
       </c>
       <c r="AC8" t="n">
-        <v>401.0794620952364</v>
+        <v>445.9800221862561</v>
       </c>
       <c r="AD8" t="n">
-        <v>324062.5024489067</v>
+        <v>360341.0687670152</v>
       </c>
       <c r="AE8" t="n">
-        <v>443396.6124791977</v>
+        <v>493034.5474130224</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.620089355901359e-06</v>
+        <v>4.881027745635407e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>401079.4620952364</v>
+        <v>445980.0221862561</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.715232740922</v>
+        <v>349.9937990590307</v>
       </c>
       <c r="AB9" t="n">
-        <v>429.2390215754111</v>
+        <v>478.8769565092358</v>
       </c>
       <c r="AC9" t="n">
-        <v>388.2730517970035</v>
+        <v>433.1736118880233</v>
       </c>
       <c r="AD9" t="n">
-        <v>313715.232740922</v>
+        <v>349993.7990590307</v>
       </c>
       <c r="AE9" t="n">
-        <v>429239.0215754111</v>
+        <v>478876.9565092358</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.646817278928513e-06</v>
+        <v>4.930819839017608e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.787760416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>388273.0517970035</v>
+        <v>433173.6118880233</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>304.3280074646307</v>
+        <v>340.6065737827393</v>
       </c>
       <c r="AB10" t="n">
-        <v>416.3950058172382</v>
+        <v>466.0329407510629</v>
       </c>
       <c r="AC10" t="n">
-        <v>376.6548508761014</v>
+        <v>421.5554109671211</v>
       </c>
       <c r="AD10" t="n">
-        <v>304328.0074646306</v>
+        <v>340606.5737827393</v>
       </c>
       <c r="AE10" t="n">
-        <v>416395.0058172382</v>
+        <v>466032.9407510629</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.669780705754661e-06</v>
+        <v>4.973598961500907e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.7373046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>376654.8508761014</v>
+        <v>421555.4109671211</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>299.8562378537525</v>
+        <v>336.1348041718612</v>
       </c>
       <c r="AB11" t="n">
-        <v>410.2765333550829</v>
+        <v>459.9144682889076</v>
       </c>
       <c r="AC11" t="n">
-        <v>371.1203168384042</v>
+        <v>416.0208769294238</v>
       </c>
       <c r="AD11" t="n">
-        <v>299856.2378537525</v>
+        <v>336134.8041718612</v>
       </c>
       <c r="AE11" t="n">
-        <v>410276.5333550829</v>
+        <v>459914.4682889076</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.680038957902406e-06</v>
+        <v>4.992709307200414e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>371120.3168384042</v>
+        <v>416020.8769294238</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>301.1221657640935</v>
+        <v>337.4007320822022</v>
       </c>
       <c r="AB12" t="n">
-        <v>412.0086317708092</v>
+        <v>461.6465667046339</v>
       </c>
       <c r="AC12" t="n">
-        <v>372.687106212349</v>
+        <v>417.5876663033686</v>
       </c>
       <c r="AD12" t="n">
-        <v>301122.1657640935</v>
+        <v>337400.7320822022</v>
       </c>
       <c r="AE12" t="n">
-        <v>412008.6317708092</v>
+        <v>461646.5667046339</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.67956839587728e-06</v>
+        <v>4.99183268583805e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>372687.106212349</v>
+        <v>417587.6663033686</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.9864790760776</v>
+        <v>540.3831616864932</v>
       </c>
       <c r="AB2" t="n">
-        <v>678.6305820510369</v>
+        <v>739.3760818420102</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.8630317640891</v>
+        <v>668.8110663118564</v>
       </c>
       <c r="AD2" t="n">
-        <v>495986.4790760776</v>
+        <v>540383.1616864932</v>
       </c>
       <c r="AE2" t="n">
-        <v>678630.5820510369</v>
+        <v>739376.0818420101</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.983258789904234e-06</v>
+        <v>3.975436998572853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.356119791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>613863.0317640891</v>
+        <v>668811.0663118564</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.8569001657084</v>
+        <v>357.133099287015</v>
       </c>
       <c r="AB3" t="n">
-        <v>443.1152983647934</v>
+        <v>488.6452620448609</v>
       </c>
       <c r="AC3" t="n">
-        <v>400.8249962050839</v>
+        <v>442.0096440532312</v>
       </c>
       <c r="AD3" t="n">
-        <v>323856.9001657084</v>
+        <v>357133.099287015</v>
       </c>
       <c r="AE3" t="n">
-        <v>443115.2983647934</v>
+        <v>488645.2620448609</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550878675612746e-06</v>
+        <v>5.113229558100737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.495768229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>400824.9962050839</v>
+        <v>442009.6440532312</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.6641060355662</v>
+        <v>315.9403051568728</v>
       </c>
       <c r="AB4" t="n">
-        <v>386.7535001381142</v>
+        <v>432.2834638181819</v>
       </c>
       <c r="AC4" t="n">
-        <v>349.8422888968784</v>
+        <v>391.0269367450258</v>
       </c>
       <c r="AD4" t="n">
-        <v>282664.1060355662</v>
+        <v>315940.3051568728</v>
       </c>
       <c r="AE4" t="n">
-        <v>386753.5001381142</v>
+        <v>432283.4638181819</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.760108965322341e-06</v>
+        <v>5.532631120402047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.004231770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>349842.2888968784</v>
+        <v>391026.9367450258</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.9030361881442</v>
+        <v>282.2644866554745</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.560114939428</v>
+        <v>386.2067232723099</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.0575355488339</v>
+        <v>349.3476956477404</v>
       </c>
       <c r="AD5" t="n">
-        <v>248903.0361881442</v>
+        <v>282264.4866554745</v>
       </c>
       <c r="AE5" t="n">
-        <v>340560.1149394281</v>
+        <v>386206.7232723099</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.855509832211825e-06</v>
+        <v>5.723861905743326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.804036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>308057.5355488339</v>
+        <v>349347.6956477403</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.8034316303713</v>
+        <v>280.1648820977015</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.6873433554689</v>
+        <v>383.3339516883493</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.4589372528866</v>
+        <v>346.7490973517927</v>
       </c>
       <c r="AD6" t="n">
-        <v>246803.4316303713</v>
+        <v>280164.8820977015</v>
       </c>
       <c r="AE6" t="n">
-        <v>337687.3433554689</v>
+        <v>383333.9516883492</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.868440365931104e-06</v>
+        <v>5.749781126381898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.777994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>305458.9372528866</v>
+        <v>346749.0973517927</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.3818000104437</v>
+        <v>403.7922038373397</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.4585218141033</v>
+        <v>552.4863073450297</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.2680944690585</v>
+        <v>499.7577895914217</v>
       </c>
       <c r="AD2" t="n">
-        <v>361381.8000104437</v>
+        <v>403792.2038373398</v>
       </c>
       <c r="AE2" t="n">
-        <v>494458.5218141034</v>
+        <v>552486.3073450297</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.324148770433373e-06</v>
+        <v>4.86226457516937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.4267578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>447268.0944690585</v>
+        <v>499757.7895914217</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.3825932278179</v>
+        <v>289.2330889024167</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.1622189727584</v>
+        <v>395.74147229961</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.5523510568821</v>
+        <v>357.9724616099792</v>
       </c>
       <c r="AD3" t="n">
-        <v>257382.593227818</v>
+        <v>289233.0889024168</v>
       </c>
       <c r="AE3" t="n">
-        <v>352162.2189727584</v>
+        <v>395741.47229961</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.822620031774838e-06</v>
+        <v>5.905097627250051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.114908854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>318552.3510568821</v>
+        <v>357972.4616099792</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.9165362305052</v>
+        <v>256.8522832511209</v>
       </c>
       <c r="AB4" t="n">
-        <v>307.7407274877094</v>
+        <v>351.4366254670169</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.3703843731972</v>
+        <v>317.8960071769515</v>
       </c>
       <c r="AD4" t="n">
-        <v>224916.5362305052</v>
+        <v>256852.2832511209</v>
       </c>
       <c r="AE4" t="n">
-        <v>307740.7274877094</v>
+        <v>351436.6254670169</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.940768326484283e-06</v>
+        <v>6.152271248530451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.869140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>278370.3843731972</v>
+        <v>317896.0071769515</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.2519977353001</v>
+        <v>258.187744755919</v>
       </c>
       <c r="AB5" t="n">
-        <v>309.5679648349722</v>
+        <v>353.2638628144512</v>
       </c>
       <c r="AC5" t="n">
-        <v>280.0232327525816</v>
+        <v>319.5488555563846</v>
       </c>
       <c r="AD5" t="n">
-        <v>226251.9977353</v>
+        <v>258187.7447559189</v>
       </c>
       <c r="AE5" t="n">
-        <v>309567.9648349722</v>
+        <v>353263.8628144512</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.940662268769104e-06</v>
+        <v>6.152049369157668e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.870768229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>280023.2327525816</v>
+        <v>319548.8555563846</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.655763179057</v>
+        <v>317.6319631360613</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.5326203724591</v>
+        <v>434.5980648959905</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.4059983579803</v>
+        <v>393.1206355445315</v>
       </c>
       <c r="AD2" t="n">
-        <v>276655.763179057</v>
+        <v>317631.9631360613</v>
       </c>
       <c r="AE2" t="n">
-        <v>378532.6203724591</v>
+        <v>434598.0648959905</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.60653349930196e-06</v>
+        <v>5.666227886782662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.8505859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>342405.9983579803</v>
+        <v>393120.6355445315</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.9475751696479</v>
+        <v>249.8384342720801</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.8912904634146</v>
+        <v>341.8399678647195</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.6062269526166</v>
+        <v>309.2152411072207</v>
       </c>
       <c r="AD3" t="n">
-        <v>208947.5751696479</v>
+        <v>249838.4342720801</v>
       </c>
       <c r="AE3" t="n">
-        <v>285891.2904634146</v>
+        <v>341839.9678647195</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.982735341591143e-06</v>
+        <v>6.484036432273771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.986328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>258606.2269526166</v>
+        <v>309215.2411072207</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.3799619811336</v>
+        <v>251.2708210835658</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.8511452913345</v>
+        <v>343.7998226926396</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.3790359864341</v>
+        <v>310.9880501410382</v>
       </c>
       <c r="AD4" t="n">
-        <v>210379.9619811336</v>
+        <v>251270.8210835658</v>
       </c>
       <c r="AE4" t="n">
-        <v>287851.1452913345</v>
+        <v>343799.8226926395</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.982406206121074e-06</v>
+        <v>6.483320939233096e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.987955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260379.0359864341</v>
+        <v>310988.0501410382</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.7627013853997</v>
+        <v>219.3851742630927</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.009943891808</v>
+        <v>300.172474017432</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.0995211766071</v>
+        <v>271.5244343920101</v>
       </c>
       <c r="AD2" t="n">
-        <v>190762.7013853997</v>
+        <v>219385.1742630927</v>
       </c>
       <c r="AE2" t="n">
-        <v>261009.943891808</v>
+        <v>300172.474017432</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.936791100744545e-06</v>
+        <v>6.985236819355487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.526692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>236099.5211766071</v>
+        <v>271524.4343920101</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.0988272826229</v>
+        <v>713.5445165877984</v>
       </c>
       <c r="AB2" t="n">
-        <v>897.7033605255068</v>
+        <v>976.3030869577965</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.0278117315313</v>
+        <v>883.1260905885322</v>
       </c>
       <c r="AD2" t="n">
-        <v>656098.8272826229</v>
+        <v>713544.5165877984</v>
       </c>
       <c r="AE2" t="n">
-        <v>897703.3605255068</v>
+        <v>976303.0869577965</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.704728947527717e-06</v>
+        <v>3.30815982393776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.402669270833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>812027.8117315313</v>
+        <v>883126.0905885322</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.0585481031855</v>
+        <v>435.0662324532282</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.3270695665436</v>
+        <v>595.2768130100553</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.5225211728466</v>
+        <v>538.4644294526292</v>
       </c>
       <c r="AD3" t="n">
-        <v>389058.5481031855</v>
+        <v>435066.2324532282</v>
       </c>
       <c r="AE3" t="n">
-        <v>532327.0695665437</v>
+        <v>595276.8130100553</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.329957073450742e-06</v>
+        <v>4.521463891997425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8798828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>481522.5211728466</v>
+        <v>538464.4294526293</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>336.6433548364588</v>
+        <v>371.1278723938989</v>
       </c>
       <c r="AB4" t="n">
-        <v>460.6102897438819</v>
+        <v>507.7935280155147</v>
       </c>
       <c r="AC4" t="n">
-        <v>416.650290161327</v>
+        <v>459.3304263944059</v>
       </c>
       <c r="AD4" t="n">
-        <v>336643.3548364588</v>
+        <v>371127.8723938989</v>
       </c>
       <c r="AE4" t="n">
-        <v>460610.2897438819</v>
+        <v>507793.5280155147</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.559604575364822e-06</v>
+        <v>4.967112826745438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.261393229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>416650.290161327</v>
+        <v>459330.4263944059</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.9896425961563</v>
+        <v>344.9119860916273</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.0908194921551</v>
+        <v>471.9237958134692</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.0477658423943</v>
+        <v>426.8840510902382</v>
       </c>
       <c r="AD5" t="n">
-        <v>298989.6425961563</v>
+        <v>344911.9860916273</v>
       </c>
       <c r="AE5" t="n">
-        <v>409090.8194921551</v>
+        <v>471923.7958134692</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.675511569255418e-06</v>
+        <v>5.19203941173618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.9912109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>370047.7658423943</v>
+        <v>426884.0510902383</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.6190060396021</v>
+        <v>314.1887749430628</v>
       </c>
       <c r="AB6" t="n">
-        <v>382.5870599833055</v>
+        <v>429.8869429075876</v>
       </c>
       <c r="AC6" t="n">
-        <v>346.0734879428093</v>
+        <v>388.8591364266005</v>
       </c>
       <c r="AD6" t="n">
-        <v>279619.0060396021</v>
+        <v>314188.7749430628</v>
       </c>
       <c r="AE6" t="n">
-        <v>382587.0599833055</v>
+        <v>429886.9429075876</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.75114162134376e-06</v>
+        <v>5.338805441704651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.8251953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>346073.4879428092</v>
+        <v>388859.1364266005</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.7751918923163</v>
+        <v>297.344960795777</v>
       </c>
       <c r="AB7" t="n">
-        <v>359.5406103703542</v>
+        <v>406.8404932946361</v>
       </c>
       <c r="AC7" t="n">
-        <v>325.2265591350227</v>
+        <v>368.0122076188139</v>
       </c>
       <c r="AD7" t="n">
-        <v>262775.1918923163</v>
+        <v>297344.960795777</v>
       </c>
       <c r="AE7" t="n">
-        <v>359540.6103703541</v>
+        <v>406840.4932946361</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.822143271806904e-06</v>
+        <v>5.476589696401615e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.6787109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>325226.5591350227</v>
+        <v>368012.2076188139</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>263.5701510079627</v>
+        <v>298.1399199114235</v>
       </c>
       <c r="AB8" t="n">
-        <v>360.6283085035026</v>
+        <v>407.9281914277846</v>
       </c>
       <c r="AC8" t="n">
-        <v>326.2104488849374</v>
+        <v>368.9960973687286</v>
       </c>
       <c r="AD8" t="n">
-        <v>263570.1510079627</v>
+        <v>298139.9199114235</v>
       </c>
       <c r="AE8" t="n">
-        <v>360628.3085035026</v>
+        <v>407928.1914277846</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.817416393551383e-06</v>
+        <v>5.467416819528585e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.6884765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>326210.4488849374</v>
+        <v>368996.0973687286</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>942.9283995283985</v>
+        <v>1002.862642557572</v>
       </c>
       <c r="AB2" t="n">
-        <v>1290.156235299828</v>
+        <v>1372.160910724533</v>
       </c>
       <c r="AC2" t="n">
-        <v>1167.02553494846</v>
+        <v>1241.203799244917</v>
       </c>
       <c r="AD2" t="n">
-        <v>942928.3995283985</v>
+        <v>1002862.642557572</v>
       </c>
       <c r="AE2" t="n">
-        <v>1290156.235299828</v>
+        <v>1372160.910724533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.392966856162502e-06</v>
+        <v>2.613752184498164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1167025.53494846</v>
+        <v>1241203.799244917</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.3100092239204</v>
+        <v>541.0867398398261</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.968517921799</v>
+        <v>740.3387485110777</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.5504698956064</v>
+        <v>669.6818574251391</v>
       </c>
       <c r="AD3" t="n">
-        <v>493310.0092239204</v>
+        <v>541086.7398398261</v>
       </c>
       <c r="AE3" t="n">
-        <v>674968.5179217991</v>
+        <v>740338.7485110777</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.080198000813285e-06</v>
+        <v>3.90326736401555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.425130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>610550.4698956064</v>
+        <v>669681.8574251392</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.7331433596553</v>
+        <v>454.5951253215815</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.5102305445564</v>
+        <v>621.9971057864843</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.3976752083973</v>
+        <v>562.6345749886424</v>
       </c>
       <c r="AD4" t="n">
-        <v>406733.1433596553</v>
+        <v>454595.1253215815</v>
       </c>
       <c r="AE4" t="n">
-        <v>556510.2305445564</v>
+        <v>621997.1057864843</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.335750813923552e-06</v>
+        <v>4.382784676697174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.612955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>503397.6752083973</v>
+        <v>562634.5749886424</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.2983331895572</v>
+        <v>409.1735739559099</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.7632482301067</v>
+        <v>559.8493353505515</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.0167206797457</v>
+        <v>506.4181005381712</v>
       </c>
       <c r="AD5" t="n">
-        <v>373298.3331895572</v>
+        <v>409173.5739559099</v>
       </c>
       <c r="AE5" t="n">
-        <v>510763.2482301067</v>
+        <v>559849.3353505515</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.470027542683682e-06</v>
+        <v>4.634740487111024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.253255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>462016.7206797457</v>
+        <v>506418.1005381712</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.5314082324012</v>
+        <v>388.4066489987541</v>
       </c>
       <c r="AB6" t="n">
-        <v>482.349025331657</v>
+        <v>531.4351124521019</v>
       </c>
       <c r="AC6" t="n">
-        <v>436.3143113351118</v>
+        <v>480.7156911935375</v>
       </c>
       <c r="AD6" t="n">
-        <v>352531.4082324012</v>
+        <v>388406.6489987541</v>
       </c>
       <c r="AE6" t="n">
-        <v>482349.025331657</v>
+        <v>531435.1124521019</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.551447636871802e-06</v>
+        <v>4.787516519149952e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.053059895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>436314.3113351119</v>
+        <v>480715.6911935374</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.620604535714</v>
+        <v>359.5810966480874</v>
       </c>
       <c r="AB7" t="n">
-        <v>442.7919882592075</v>
+        <v>491.9947200323018</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.5325423622066</v>
+        <v>445.0394344713445</v>
       </c>
       <c r="AD7" t="n">
-        <v>323620.604535714</v>
+        <v>359581.0966480874</v>
       </c>
       <c r="AE7" t="n">
-        <v>442791.9882592075</v>
+        <v>491994.7200323017</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.61645085892176e-06</v>
+        <v>4.909488059880333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.9033203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>400532.5423622066</v>
+        <v>445039.4344713445</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>306.3133386488266</v>
+        <v>342.2738307612</v>
       </c>
       <c r="AB8" t="n">
-        <v>419.1114235300855</v>
+        <v>468.3141553031796</v>
       </c>
       <c r="AC8" t="n">
-        <v>379.1120174949507</v>
+        <v>423.6189096040886</v>
       </c>
       <c r="AD8" t="n">
-        <v>306313.3386488266</v>
+        <v>342273.8307612</v>
       </c>
       <c r="AE8" t="n">
-        <v>419111.4235300855</v>
+        <v>468314.1553031796</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.677658272384857e-06</v>
+        <v>5.024337174874631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>379112.0174949507</v>
+        <v>423618.9096040886</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>298.5244436021072</v>
+        <v>334.4849357144806</v>
       </c>
       <c r="AB9" t="n">
-        <v>408.4543137053662</v>
+        <v>457.6570454784602</v>
       </c>
       <c r="AC9" t="n">
-        <v>369.472007274555</v>
+        <v>413.9788993836929</v>
       </c>
       <c r="AD9" t="n">
-        <v>298524.4436021072</v>
+        <v>334484.9357144806</v>
       </c>
       <c r="AE9" t="n">
-        <v>408454.3137053662</v>
+        <v>457657.0454784603</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.689425279004119e-06</v>
+        <v>5.04641669465648e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>369472.007274555</v>
+        <v>413978.8993836929</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>293.8412495067284</v>
+        <v>329.8017416191018</v>
       </c>
       <c r="AB10" t="n">
-        <v>402.0465609361272</v>
+        <v>451.2492927092213</v>
       </c>
       <c r="AC10" t="n">
-        <v>363.6758014362745</v>
+        <v>408.1826935454125</v>
       </c>
       <c r="AD10" t="n">
-        <v>293841.2495067284</v>
+        <v>329801.7416191018</v>
       </c>
       <c r="AE10" t="n">
-        <v>402046.5609361271</v>
+        <v>451249.2927092212</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.699009695685937e-06</v>
+        <v>5.064400819640084e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.72265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>363675.8014362745</v>
+        <v>408182.6935454125</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>293.456624173615</v>
+        <v>329.4171162859884</v>
       </c>
       <c r="AB11" t="n">
-        <v>401.5202995868891</v>
+        <v>450.7230313599833</v>
       </c>
       <c r="AC11" t="n">
-        <v>363.1997657315954</v>
+        <v>407.7066578407333</v>
       </c>
       <c r="AD11" t="n">
-        <v>293456.624173615</v>
+        <v>329417.1162859884</v>
       </c>
       <c r="AE11" t="n">
-        <v>401520.2995868891</v>
+        <v>450723.0313599833</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.704228932492868e-06</v>
+        <v>5.074194155027195e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.711263020833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>363199.7657315955</v>
+        <v>407706.6578407333</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.2461098112218</v>
+        <v>215.7267782094726</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.5666322758349</v>
+        <v>295.1668951398284</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.9848343885431</v>
+        <v>266.9965809371094</v>
       </c>
       <c r="AD2" t="n">
-        <v>188246.1098112218</v>
+        <v>215726.7782094726</v>
       </c>
       <c r="AE2" t="n">
-        <v>257566.6322758349</v>
+        <v>295166.8951398284</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.780479055792805e-06</v>
+        <v>6.953767109284455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.137044270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>232984.8343885431</v>
+        <v>266996.5809371094</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.146010947563</v>
+        <v>443.4017988449347</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.4974253745596</v>
+        <v>606.6819026864237</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.2450395142735</v>
+        <v>548.7810333774289</v>
       </c>
       <c r="AD2" t="n">
-        <v>400146.0109475629</v>
+        <v>443401.7988449347</v>
       </c>
       <c r="AE2" t="n">
-        <v>547497.4253745596</v>
+        <v>606681.9026864236</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203005003330575e-06</v>
+        <v>4.536611761512412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>495245.0395142735</v>
+        <v>548781.0333774289</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.0631389667415</v>
+        <v>312.4197285437497</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.1947422479796</v>
+        <v>427.4664555792285</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.6231738650303</v>
+        <v>386.6696570116845</v>
       </c>
       <c r="AD3" t="n">
-        <v>280063.1389667415</v>
+        <v>312419.7285437497</v>
       </c>
       <c r="AE3" t="n">
-        <v>383194.7422479796</v>
+        <v>427466.4555792285</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.724832603388907e-06</v>
+        <v>5.611202706302558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.241861979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>346623.1738650302</v>
+        <v>386669.6570116846</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.1914128217354</v>
+        <v>267.633253744767</v>
       </c>
       <c r="AB4" t="n">
-        <v>321.7992669353867</v>
+        <v>366.18762491944</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.0871965472766</v>
+        <v>331.2391919446874</v>
       </c>
       <c r="AD4" t="n">
-        <v>235191.4128217353</v>
+        <v>267633.253744767</v>
       </c>
       <c r="AE4" t="n">
-        <v>321799.2669353867</v>
+        <v>366187.62491944</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.904592962311464e-06</v>
+        <v>5.981380239857344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.856119791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>291087.1965472766</v>
+        <v>331239.1919446874</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.4487235820562</v>
+        <v>264.8905645050878</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.0465985187499</v>
+        <v>362.4349565028014</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.6926775374193</v>
+        <v>327.8446729348295</v>
       </c>
       <c r="AD5" t="n">
-        <v>232448.7235820562</v>
+        <v>264890.5645050878</v>
       </c>
       <c r="AE5" t="n">
-        <v>318046.5985187499</v>
+        <v>362434.9565028013</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.920687785145227e-06</v>
+        <v>6.014524042280273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.823567708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>287692.6775374193</v>
+        <v>327844.6729348295</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.5004389457506</v>
+        <v>598.7216347350468</v>
       </c>
       <c r="AB2" t="n">
-        <v>742.2730339958063</v>
+        <v>819.1973543788284</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.4315374179921</v>
+        <v>741.0143086276203</v>
       </c>
       <c r="AD2" t="n">
-        <v>542500.4389457506</v>
+        <v>598721.6347350468</v>
       </c>
       <c r="AE2" t="n">
-        <v>742273.0339958062</v>
+        <v>819197.3543788284</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.884357503288756e-06</v>
+        <v>3.73325914643444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.69140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>671431.5374179921</v>
+        <v>741014.3086276202</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.0816909974755</v>
+        <v>390.0415794579981</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.1559935525028</v>
+        <v>533.672096434481</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.0940882029501</v>
+        <v>482.7391805642649</v>
       </c>
       <c r="AD3" t="n">
-        <v>345081.6909974755</v>
+        <v>390041.5794579981</v>
       </c>
       <c r="AE3" t="n">
-        <v>472155.9935525028</v>
+        <v>533672.096434481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.474508448810652e-06</v>
+        <v>4.902456823256034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.617838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>427094.0882029501</v>
+        <v>482739.1805642649</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.747677168062</v>
+        <v>335.446347808362</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.8644840693345</v>
+        <v>458.972491919817</v>
       </c>
       <c r="AC4" t="n">
-        <v>373.4612771686991</v>
+        <v>415.1688014629271</v>
       </c>
       <c r="AD4" t="n">
-        <v>301747.677168062</v>
+        <v>335446.347808362</v>
       </c>
       <c r="AE4" t="n">
-        <v>412864.4840693345</v>
+        <v>458972.491919817</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.686016937725746e-06</v>
+        <v>5.321494081001812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.097005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>373461.2771686991</v>
+        <v>415168.8014629271</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>265.9295487108345</v>
+        <v>299.7134706971552</v>
       </c>
       <c r="AB5" t="n">
-        <v>363.8565405298521</v>
+        <v>410.0811930329839</v>
       </c>
       <c r="AC5" t="n">
-        <v>329.1305829775442</v>
+        <v>370.9436195224845</v>
       </c>
       <c r="AD5" t="n">
-        <v>265929.5487108345</v>
+        <v>299713.4706971552</v>
       </c>
       <c r="AE5" t="n">
-        <v>363856.5405298521</v>
+        <v>410081.1930329839</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793381142136976e-06</v>
+        <v>5.534202336955544e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.862630208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>329130.5829775442</v>
+        <v>370943.6195224845</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>252.3102989976729</v>
+        <v>286.0942209839967</v>
       </c>
       <c r="AB6" t="n">
-        <v>345.2220822332491</v>
+        <v>391.4467347365483</v>
       </c>
       <c r="AC6" t="n">
-        <v>312.2745712272463</v>
+        <v>354.0876077722342</v>
       </c>
       <c r="AD6" t="n">
-        <v>252310.2989976729</v>
+        <v>286094.2209839967</v>
       </c>
       <c r="AE6" t="n">
-        <v>345222.0822332491</v>
+        <v>391446.7347365483</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.849327250527458e-06</v>
+        <v>5.645041878014847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.7470703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>312274.5712272463</v>
+        <v>354087.6077722341</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>253.5085833306294</v>
+        <v>287.2925053169532</v>
       </c>
       <c r="AB7" t="n">
-        <v>346.8616277221732</v>
+        <v>393.0862802254732</v>
       </c>
       <c r="AC7" t="n">
-        <v>313.7576407958245</v>
+        <v>355.5706773408126</v>
       </c>
       <c r="AD7" t="n">
-        <v>253508.5833306295</v>
+        <v>287292.5053169532</v>
       </c>
       <c r="AE7" t="n">
-        <v>346861.6277221732</v>
+        <v>393086.2802254732</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.848924760539037e-06</v>
+        <v>5.644244471244636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.748697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>313757.6407958245</v>
+        <v>355570.6773408126</v>
       </c>
     </row>
   </sheetData>
